--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -110,7 +110,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中日國際企業股份有限公 司</t>
+  </si>
+  <si>
+    <t>2012-02-29</t>
   </si>
   <si>
     <t>名稱</t>
@@ -759,13 +771,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -784,13 +796,22 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -806,6 +827,15 @@
       </c>
       <c r="G2" s="2">
         <v>5000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -823,22 +853,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -849,13 +879,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>3411.78</v>
@@ -875,13 +905,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>3119.403</v>
@@ -901,13 +931,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2">
         <v>2758.104</v>
@@ -937,13 +967,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -951,10 +981,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -965,10 +995,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -110,6 +110,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -119,7 +122,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>中日國際企業股份有限公 司</t>
+    <t>中日國際企業股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-02-29</t>
@@ -771,13 +777,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -805,13 +811,16 @@
       <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -829,12 +838,15 @@
         <v>5000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2">
         <v>904</v>
       </c>
     </row>
@@ -853,22 +865,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -879,13 +891,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>3411.78</v>
@@ -905,13 +917,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>3119.403</v>
@@ -931,13 +943,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
         <v>2758.104</v>
@@ -967,13 +979,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -981,10 +993,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -995,10 +1007,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>廠牌型號</t>
   </si>
@@ -113,6 +113,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -122,13 +125,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中日國際企業股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-02-29</t>
+  </si>
+  <si>
+    <t>tmp3bff1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -777,13 +792,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -814,13 +829,22 @@
       <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -838,16 +862,25 @@
         <v>5000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2">
         <v>904</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -865,22 +898,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -891,13 +924,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>3411.78</v>
@@ -917,13 +950,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2">
         <v>3119.403</v>
@@ -943,13 +976,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
         <v>2758.104</v>
@@ -979,13 +1012,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -993,10 +1026,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1007,10 +1040,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -44,7 +44,7 @@
     <t>林岱樺</t>
   </si>
   <si>
-    <t>96年07月 01日</t>
+    <t>96年07月01日</t>
   </si>
   <si>
     <t>買賣</t>
@@ -71,10 +71,10 @@
     <t>高雄銀行市府分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行鳳山分 行</t>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行鳳山分行</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -161,16 +161,16 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>貝萊德美國政府 房貸債券基金A 3美元（配現）</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 全球投資糸列一 美國政府</t>
-  </si>
-  <si>
-    <t>摩根美國複合收 益A股(人息)-美 元</t>
-  </si>
-  <si>
-    <t>中國信託商業 銀行</t>
+    <t>貝萊德美國政府房貸債券基金A3美元（配現）</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓全球投資糸列一美國政府</t>
+  </si>
+  <si>
+    <t>摩根美國複合收益A股(人息)美元</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -188,10 +188,10 @@
     <t>三商美邦人壽</t>
   </si>
   <si>
-    <t>新光人壽全心全意終身還本 保險</t>
-  </si>
-  <si>
-    <t>世紀領航萬能終身壽險計劃 A</t>
+    <t>新光人壽全心全意終身還本保險</t>
+  </si>
+  <si>
+    <t>世紀領航萬能終身壽險計劃A</t>
   </si>
 </sst>
 </file>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -18,25 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取.得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>豐田LEXUS(汽車）</t>
   </si>
@@ -50,24 +32,15 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行鳳山分行</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>高雄銀行市府分行</t>
   </si>
   <si>
@@ -77,15 +50,9 @@
     <t>台新國際商業銀行鳳山分行</t>
   </si>
   <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -131,64 +98,25 @@
     <t>index</t>
   </si>
   <si>
-    <t>中日國際企業股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-02-29</t>
-  </si>
-  <si>
-    <t>tmp3bff1</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>貝萊德美國政府房貸債券基金A3美元（配現）</t>
   </si>
   <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
     <t>富蘭克林坦伯頓全球投資糸列一美國政府</t>
   </si>
   <si>
     <t>摩根美國複合收益A股(人息)美元</t>
   </si>
   <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>新光人壽全心全意終身還本保險</t>
+  </si>
+  <si>
     <t>三商美邦人壽</t>
-  </si>
-  <si>
-    <t>新光人壽全心全意終身還本保險</t>
   </si>
   <si>
     <t>世紀領航萬能終身壽險計劃A</t>
@@ -550,52 +478,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="1">
+        <v>3311</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3311</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G1" s="1">
         <v>2500000</v>
       </c>
     </row>
@@ -606,7 +511,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,174 +519,151 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>38366</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>38366</v>
+        <v>2359237</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>2359237</v>
+        <v>249260</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>24810.91</v>
+      </c>
       <c r="G4" s="2">
-        <v>249260</v>
+        <v>729936.97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2">
-        <v>24810.91</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>729936.97</v>
+        <v>3407020</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.69</v>
+      </c>
       <c r="G6" s="2">
-        <v>3407020</v>
+        <v>106.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>2.69</v>
+        <v>854.1</v>
       </c>
       <c r="G7" s="2">
-        <v>106.47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>854.1</v>
-      </c>
-      <c r="G8" s="2">
         <v>25127.62</v>
       </c>
     </row>
@@ -792,95 +674,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>500</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2">
-        <v>904</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="2">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +728,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -898,102 +736,76 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3411.78</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10.34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1037873.03</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2">
-        <v>3411.78</v>
+        <v>3119.403</v>
       </c>
       <c r="F2" s="2">
-        <v>10.34</v>
+        <v>9.8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2">
-        <v>1037873.03</v>
+        <v>899373.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2">
-        <v>3119.403</v>
+        <v>2758.104</v>
       </c>
       <c r="F3" s="2">
-        <v>9.8</v>
+        <v>12.89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2">
-        <v>899373.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2758.104</v>
-      </c>
-      <c r="F4" s="2">
-        <v>12.89</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2">
         <v>1045938.68</v>
       </c>
     </row>
@@ -1004,7 +816,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,41 +824,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>豐田LEXUS(汽車）</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>中日國際企業股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-02-29</t>
+  </si>
+  <si>
+    <t>tmp3bff1</t>
   </si>
   <si>
     <t>貝萊德美國政府房貸債券基金A3美元（配現）</t>
@@ -478,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,6 +516,29 @@
         <v>3</v>
       </c>
       <c r="G1" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3311</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
         <v>2500000</v>
       </c>
     </row>
@@ -511,7 +549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -537,13 +575,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -553,15 +591,15 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>2359237</v>
+        <v>38366</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -574,12 +612,12 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>249260</v>
+        <v>2359237</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -588,42 +626,42 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
-        <v>24810.91</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>729936.97</v>
+        <v>249260</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>24810.91</v>
+      </c>
       <c r="G5" s="2">
-        <v>3407020</v>
+        <v>729936.97</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -632,21 +670,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>2.69</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>106.47</v>
+        <v>3407020</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -655,15 +691,38 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="G7" s="2">
+        <v>106.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>854.1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>25127.62</v>
       </c>
     </row>
@@ -674,13 +733,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -719,6 +778,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>904</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +831,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -736,13 +839,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1">
         <v>3411.78</v>
@@ -759,53 +862,79 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2">
-        <v>3119.403</v>
+        <v>3411.78</v>
       </c>
       <c r="F2" s="2">
-        <v>9.8</v>
+        <v>10.34</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="2">
-        <v>899373.8</v>
+        <v>1037873.03</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2">
-        <v>2758.104</v>
+        <v>3119.403</v>
       </c>
       <c r="F3" s="2">
-        <v>12.89</v>
+        <v>9.8</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="2">
+        <v>899373.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2758.104</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12.89</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
         <v>1045938.68</v>
       </c>
     </row>
@@ -816,7 +945,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -824,10 +953,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -835,15 +964,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>81</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -18,7 +18,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>豐田LEXUS(汽車）</t>
   </si>
@@ -32,6 +71,18 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-02-29</t>
+  </si>
+  <si>
+    <t>tmp3bff1</t>
+  </si>
+  <si>
     <t>臺灣銀行鳳山分行</t>
   </si>
   <si>
@@ -59,12 +110,6 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -77,40 +122,10 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中日國際企業股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-02-29</t>
-  </si>
-  <si>
-    <t>tmp3bff1</t>
   </si>
   <si>
     <t>貝萊德美國政府房貸債券基金A3美元（配現）</t>
@@ -493,53 +508,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>3311</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>3311</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>2500000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
+        <v>904</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -557,16 +614,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -578,16 +635,16 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -599,16 +656,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -620,16 +677,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -641,16 +698,16 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
         <v>24810.91</v>
@@ -664,16 +721,16 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -685,16 +742,16 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
         <v>2.69</v>
@@ -708,16 +765,16 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
         <v>854.1</v>
@@ -741,43 +798,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -785,10 +842,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>500</v>
@@ -797,28 +854,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>5000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2">
         <v>904</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2">
         <v>56</v>
@@ -839,13 +896,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1">
         <v>3411.78</v>
@@ -854,7 +911,7 @@
         <v>10.34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1">
         <v>1037873.03</v>
@@ -865,13 +922,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
         <v>3411.78</v>
@@ -880,7 +937,7 @@
         <v>10.34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
         <v>1037873.03</v>
@@ -891,13 +948,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2">
         <v>3119.403</v>
@@ -906,7 +963,7 @@
         <v>9.8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <v>899373.8</v>
@@ -917,13 +974,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2">
         <v>2758.104</v>
@@ -932,7 +989,7 @@
         <v>12.89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2">
         <v>1045938.68</v>
@@ -953,13 +1010,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -967,13 +1024,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -981,13 +1038,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -71,7 +71,7 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>land</t>
+    <t>car</t>
   </si>
   <si>
     <t>normal</t>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -83,43 +83,52 @@
     <t>tmp3bff1</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>臺灣銀行鳳山分行</t>
   </si>
   <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行鳳山分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行鳳山分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
   <si>
     <t>中日國際企業股份有限公司</t>
@@ -606,13 +615,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
@@ -623,164 +632,318 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>38366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>38366</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2">
+        <v>904</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>2359237</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
+        <v>904</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>249260</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2">
+        <v>904</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <v>24810.91</v>
-      </c>
-      <c r="G5" s="2">
         <v>729936.97</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
+        <v>904</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>3407020</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
+        <v>904</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="G7" s="2">
         <v>106.47</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
+        <v>904</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>854.1</v>
-      </c>
-      <c r="G8" s="2">
         <v>25127.62</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
+        <v>904</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -804,16 +967,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -842,7 +1005,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -854,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>5000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>18</v>
@@ -896,13 +1059,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1">
         <v>3411.78</v>
@@ -911,7 +1074,7 @@
         <v>10.34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1">
         <v>1037873.03</v>
@@ -922,13 +1085,13 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
         <v>3411.78</v>
@@ -937,7 +1100,7 @@
         <v>10.34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
         <v>1037873.03</v>
@@ -948,13 +1111,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2">
         <v>3119.403</v>
@@ -963,7 +1126,7 @@
         <v>9.8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2">
         <v>899373.8</v>
@@ -974,13 +1137,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>2758.104</v>
@@ -989,7 +1152,7 @@
         <v>12.89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
         <v>1045938.68</v>
@@ -1010,10 +1173,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
@@ -1024,10 +1187,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -1038,10 +1201,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -137,16 +137,22 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>貝萊德美國政府房貸債券基金A3美元（配現）</t>
   </si>
   <si>
+    <t>富蘭克林坦伯頓全球投資糸列一美國政府</t>
+  </si>
+  <si>
+    <t>摩根美國複合收益A股(人息)美元</t>
+  </si>
+  <si>
     <t>中國信託商業銀行</t>
   </si>
   <si>
-    <t>富蘭克林坦伯頓全球投資糸列一美國政府</t>
-  </si>
-  <si>
-    <t>摩根美國複合收益A股(人息)美元</t>
+    <t>fund</t>
   </si>
   <si>
     <t>新光人壽</t>
@@ -1051,47 +1057,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3411.78</v>
-      </c>
-      <c r="F1" s="1">
-        <v>10.34</v>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1037873.03</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>3411.78</v>
@@ -1105,8 +1132,29 @@
       <c r="H2" s="2">
         <v>1037873.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2">
+        <v>904</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>67</v>
       </c>
@@ -1117,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>3119.403</v>
@@ -1131,8 +1179,29 @@
       <c r="H3" s="2">
         <v>899373.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2">
+        <v>904</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>68</v>
       </c>
@@ -1143,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2">
         <v>2758.104</v>
@@ -1156,6 +1225,27 @@
       </c>
       <c r="H4" s="2">
         <v>1045938.68</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2">
+        <v>904</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1173,10 +1263,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
@@ -1187,10 +1277,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -1201,10 +1291,10 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>

--- a/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
+++ b/legislator/property/output/normal/林岱樺_2012-02-29_財產申報表_tmp3bff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -155,16 +155,22 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
     <t>新光人壽全心全意終身還本保險</t>
   </si>
   <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
     <t>世紀領航萬能終身壽險計劃A</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1255,38 +1261,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2">
+        <v>904</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>81</v>
       </c>
@@ -1294,10 +1342,31 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2">
+        <v>904</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
